--- a/gupopage1.xlsx
+++ b/gupopage1.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO201"/>
+  <dimension ref="A1:AP201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -563,6 +563,11 @@
           <t>sixty</t>
         </is>
       </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>tenTosixtySum</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -692,6 +697,9 @@
       <c r="AO2">
         <v>18583</v>
       </c>
+      <c r="AP2">
+        <v>136457</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -821,6 +829,9 @@
       <c r="AO3">
         <v>16486</v>
       </c>
+      <c r="AP3">
+        <v>111925</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -950,6 +961,9 @@
       <c r="AO4">
         <v>26859</v>
       </c>
+      <c r="AP4">
+        <v>202667</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1079,6 +1093,9 @@
       <c r="AO5">
         <v>33469</v>
       </c>
+      <c r="AP5">
+        <v>262605</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1208,6 +1225,9 @@
       <c r="AO6">
         <v>38315</v>
       </c>
+      <c r="AP6">
+        <v>317963</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1337,6 +1357,9 @@
       <c r="AO7">
         <v>43074</v>
       </c>
+      <c r="AP7">
+        <v>303122</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1466,6 +1489,9 @@
       <c r="AO8">
         <v>51263</v>
       </c>
+      <c r="AP8">
+        <v>344660</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1595,6 +1621,9 @@
       <c r="AO9">
         <v>50333</v>
       </c>
+      <c r="AP9">
+        <v>374968</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1724,6 +1753,9 @@
       <c r="AO10">
         <v>42537</v>
       </c>
+      <c r="AP10">
+        <v>268689</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1853,6 +1885,9 @@
       <c r="AO11">
         <v>43952</v>
       </c>
+      <c r="AP11">
+        <v>285278</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1982,6 +2017,9 @@
       <c r="AO12">
         <v>60494</v>
       </c>
+      <c r="AP12">
+        <v>464804</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2111,6 +2149,9 @@
       <c r="AO13">
         <v>57677</v>
       </c>
+      <c r="AP13">
+        <v>404119</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2240,6 +2281,9 @@
       <c r="AO14">
         <v>35309</v>
       </c>
+      <c r="AP14">
+        <v>268062</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2369,6 +2413,9 @@
       <c r="AO15">
         <v>36684</v>
       </c>
+      <c r="AP15">
+        <v>321931</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2498,6 +2545,9 @@
       <c r="AO16">
         <v>50570</v>
       </c>
+      <c r="AP16">
+        <v>400944</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2627,6 +2677,9 @@
       <c r="AO17">
         <v>69071</v>
       </c>
+      <c r="AP17">
+        <v>510206</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2756,6 +2809,9 @@
       <c r="AO18">
         <v>52858</v>
       </c>
+      <c r="AP18">
+        <v>367336</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2885,6 +2941,9 @@
       <c r="AO19">
         <v>30625</v>
       </c>
+      <c r="AP19">
+        <v>214738</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3014,6 +3073,9 @@
       <c r="AO20">
         <v>45680</v>
       </c>
+      <c r="AP20">
+        <v>338699</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3143,6 +3205,9 @@
       <c r="AO21">
         <v>45331</v>
       </c>
+      <c r="AP21">
+        <v>339092</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3272,6 +3337,9 @@
       <c r="AO22">
         <v>57050</v>
       </c>
+      <c r="AP22">
+        <v>446469</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3401,6 +3469,9 @@
       <c r="AO23">
         <v>45564</v>
       </c>
+      <c r="AP23">
+        <v>370877</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3530,6 +3601,9 @@
       <c r="AO24">
         <v>56776</v>
       </c>
+      <c r="AP24">
+        <v>474653</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3659,6 +3733,9 @@
       <c r="AO25">
         <v>73918</v>
       </c>
+      <c r="AP25">
+        <v>568479</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3788,6 +3865,9 @@
       <c r="AO26">
         <v>53243</v>
       </c>
+      <c r="AP26">
+        <v>369188</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3917,6 +3997,9 @@
       <c r="AO27">
         <v>18602</v>
       </c>
+      <c r="AP27">
+        <v>135677</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4046,6 +4129,9 @@
       <c r="AO28">
         <v>16510</v>
       </c>
+      <c r="AP28">
+        <v>112123</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4175,6 +4261,9 @@
       <c r="AO29">
         <v>26902</v>
       </c>
+      <c r="AP29">
+        <v>202459</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4304,6 +4393,9 @@
       <c r="AO30">
         <v>33752</v>
       </c>
+      <c r="AP30">
+        <v>263790</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4433,6 +4525,9 @@
       <c r="AO31">
         <v>38513</v>
       </c>
+      <c r="AP31">
+        <v>316803</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4562,6 +4657,9 @@
       <c r="AO32">
         <v>43274</v>
       </c>
+      <c r="AP32">
+        <v>302460</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4691,6 +4789,9 @@
       <c r="AO33">
         <v>51598</v>
       </c>
+      <c r="AP33">
+        <v>343338</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4820,6 +4921,9 @@
       <c r="AO34">
         <v>50331</v>
       </c>
+      <c r="AP34">
+        <v>372948</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4949,6 +5053,9 @@
       <c r="AO35">
         <v>42576</v>
       </c>
+      <c r="AP35">
+        <v>267221</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5078,6 +5185,9 @@
       <c r="AO36">
         <v>44341</v>
       </c>
+      <c r="AP36">
+        <v>284026</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5207,6 +5317,9 @@
       <c r="AO37">
         <v>61019</v>
       </c>
+      <c r="AP37">
+        <v>462432</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5336,6 +5449,9 @@
       <c r="AO38">
         <v>57989</v>
       </c>
+      <c r="AP38">
+        <v>402870</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5465,6 +5581,9 @@
       <c r="AO39">
         <v>35535</v>
       </c>
+      <c r="AP39">
+        <v>266445</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5594,6 +5713,9 @@
       <c r="AO40">
         <v>36785</v>
       </c>
+      <c r="AP40">
+        <v>321898</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5723,6 +5845,9 @@
       <c r="AO41">
         <v>50933</v>
       </c>
+      <c r="AP41">
+        <v>398950</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5852,6 +5977,9 @@
       <c r="AO42">
         <v>69489</v>
       </c>
+      <c r="AP42">
+        <v>508759</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5981,6 +6109,9 @@
       <c r="AO43">
         <v>53077</v>
       </c>
+      <c r="AP43">
+        <v>367107</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6110,6 +6241,9 @@
       <c r="AO44">
         <v>30711</v>
       </c>
+      <c r="AP44">
+        <v>214024</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6239,6 +6373,9 @@
       <c r="AO45">
         <v>45526</v>
       </c>
+      <c r="AP45">
+        <v>338918</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6368,6 +6505,9 @@
       <c r="AO46">
         <v>45540</v>
       </c>
+      <c r="AP46">
+        <v>339335</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6497,6 +6637,9 @@
       <c r="AO47">
         <v>56985</v>
       </c>
+      <c r="AP47">
+        <v>446034</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6626,6 +6769,9 @@
       <c r="AO48">
         <v>45665</v>
       </c>
+      <c r="AP48">
+        <v>369671</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6755,6 +6901,9 @@
       <c r="AO49">
         <v>56324</v>
       </c>
+      <c r="AP49">
+        <v>469054</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6884,6 +7033,9 @@
       <c r="AO50">
         <v>74671</v>
       </c>
+      <c r="AP50">
+        <v>569175</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7013,6 +7165,9 @@
       <c r="AO51">
         <v>53574</v>
       </c>
+      <c r="AP51">
+        <v>367914</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7142,6 +7297,9 @@
       <c r="AO52">
         <v>18790</v>
       </c>
+      <c r="AP52">
+        <v>135212</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7271,6 +7429,9 @@
       <c r="AO53">
         <v>16591</v>
       </c>
+      <c r="AP53">
+        <v>111879</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7400,6 +7561,9 @@
       <c r="AO54">
         <v>27031</v>
       </c>
+      <c r="AP54">
+        <v>202324</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7529,6 +7693,9 @@
       <c r="AO55">
         <v>34266</v>
       </c>
+      <c r="AP55">
+        <v>264581</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7658,6 +7825,9 @@
       <c r="AO56">
         <v>38847</v>
       </c>
+      <c r="AP56">
+        <v>316190</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7787,6 +7957,9 @@
       <c r="AO57">
         <v>43617</v>
       </c>
+      <c r="AP57">
+        <v>303508</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7916,6 +8089,9 @@
       <c r="AO58">
         <v>52196</v>
       </c>
+      <c r="AP58">
+        <v>341968</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8045,6 +8221,9 @@
       <c r="AO59">
         <v>50592</v>
       </c>
+      <c r="AP59">
+        <v>371076</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8174,6 +8353,9 @@
       <c r="AO60">
         <v>42720</v>
       </c>
+      <c r="AP60">
+        <v>265372</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8303,6 +8485,9 @@
       <c r="AO61">
         <v>44827</v>
       </c>
+      <c r="AP61">
+        <v>282791</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8432,6 +8617,9 @@
       <c r="AO62">
         <v>61726</v>
       </c>
+      <c r="AP62">
+        <v>460527</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8561,6 +8749,9 @@
       <c r="AO63">
         <v>58395</v>
       </c>
+      <c r="AP63">
+        <v>401496</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8690,6 +8881,9 @@
       <c r="AO64">
         <v>35905</v>
       </c>
+      <c r="AP64">
+        <v>265567</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8819,6 +9013,9 @@
       <c r="AO65">
         <v>37030</v>
       </c>
+      <c r="AP65">
+        <v>321575</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8948,6 +9145,9 @@
       <c r="AO66">
         <v>51611</v>
       </c>
+      <c r="AP66">
+        <v>397795</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9077,6 +9277,9 @@
       <c r="AO67">
         <v>70083</v>
       </c>
+      <c r="AP67">
+        <v>506980</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9206,6 +9409,9 @@
       <c r="AO68">
         <v>53264</v>
       </c>
+      <c r="AP68">
+        <v>365771</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9335,6 +9541,9 @@
       <c r="AO69">
         <v>30937</v>
       </c>
+      <c r="AP69">
+        <v>213503</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9464,6 +9673,9 @@
       <c r="AO70">
         <v>45649</v>
       </c>
+      <c r="AP70">
+        <v>338005</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9593,6 +9805,9 @@
       <c r="AO71">
         <v>45938</v>
       </c>
+      <c r="AP71">
+        <v>339714</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9722,6 +9937,9 @@
       <c r="AO72">
         <v>57191</v>
       </c>
+      <c r="AP72">
+        <v>445647</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9851,6 +10069,9 @@
       <c r="AO73">
         <v>45725</v>
       </c>
+      <c r="AP73">
+        <v>367633</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9980,6 +10201,9 @@
       <c r="AO74">
         <v>56218</v>
       </c>
+      <c r="AP74">
+        <v>466653</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -10109,6 +10333,9 @@
       <c r="AO75">
         <v>75487</v>
       </c>
+      <c r="AP75">
+        <v>569071</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -10238,6 +10465,9 @@
       <c r="AO76">
         <v>54040</v>
       </c>
+      <c r="AP76">
+        <v>365883</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -10367,6 +10597,9 @@
       <c r="AO77">
         <v>18964</v>
       </c>
+      <c r="AP77">
+        <v>135127</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -10496,6 +10729,9 @@
       <c r="AO78">
         <v>16803</v>
       </c>
+      <c r="AP78">
+        <v>112258</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -10625,6 +10861,9 @@
       <c r="AO79">
         <v>27260</v>
       </c>
+      <c r="AP79">
+        <v>202297</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -10754,6 +10993,9 @@
       <c r="AO80">
         <v>34643</v>
       </c>
+      <c r="AP80">
+        <v>264026</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -10883,6 +11125,9 @@
       <c r="AO81">
         <v>39319</v>
       </c>
+      <c r="AP81">
+        <v>316889</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -11012,6 +11257,9 @@
       <c r="AO82">
         <v>43671</v>
       </c>
+      <c r="AP82">
+        <v>301843</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -11141,6 +11389,9 @@
       <c r="AO83">
         <v>52716</v>
       </c>
+      <c r="AP83">
+        <v>340847</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -11270,6 +11521,9 @@
       <c r="AO84">
         <v>50867</v>
       </c>
+      <c r="AP84">
+        <v>369303</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -11399,6 +11653,9 @@
       <c r="AO85">
         <v>43024</v>
       </c>
+      <c r="AP85">
+        <v>263869</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -11528,6 +11785,9 @@
       <c r="AO86">
         <v>45257</v>
       </c>
+      <c r="AP86">
+        <v>281359</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -11657,6 +11917,9 @@
       <c r="AO87">
         <v>62398</v>
       </c>
+      <c r="AP87">
+        <v>457835</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -11786,6 +12049,9 @@
       <c r="AO88">
         <v>59084</v>
       </c>
+      <c r="AP88">
+        <v>401123</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -11915,6 +12181,9 @@
       <c r="AO89">
         <v>36153</v>
       </c>
+      <c r="AP89">
+        <v>265986</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -12044,6 +12313,9 @@
       <c r="AO90">
         <v>37326</v>
       </c>
+      <c r="AP90">
+        <v>322676</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -12173,6 +12445,9 @@
       <c r="AO91">
         <v>52041</v>
       </c>
+      <c r="AP91">
+        <v>396010</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -12302,6 +12577,9 @@
       <c r="AO92">
         <v>70805</v>
       </c>
+      <c r="AP92">
+        <v>505451</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -12431,6 +12709,9 @@
       <c r="AO93">
         <v>53586</v>
       </c>
+      <c r="AP93">
+        <v>365116</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -12560,6 +12841,9 @@
       <c r="AO94">
         <v>31279</v>
       </c>
+      <c r="AP94">
+        <v>214828</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -12689,6 +12973,9 @@
       <c r="AO95">
         <v>45770</v>
       </c>
+      <c r="AP95">
+        <v>337792</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -12818,6 +13105,9 @@
       <c r="AO96">
         <v>46543</v>
       </c>
+      <c r="AP96">
+        <v>340848</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -12947,6 +13237,9 @@
       <c r="AO97">
         <v>57312</v>
       </c>
+      <c r="AP97">
+        <v>444112</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -13076,6 +13369,9 @@
       <c r="AO98">
         <v>45539</v>
       </c>
+      <c r="AP98">
+        <v>364579</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -13205,6 +13501,9 @@
       <c r="AO99">
         <v>56333</v>
       </c>
+      <c r="AP99">
+        <v>464626</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -13334,6 +13633,9 @@
       <c r="AO100">
         <v>76443</v>
       </c>
+      <c r="AP100">
+        <v>568595</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -13463,6 +13765,9 @@
       <c r="AO101">
         <v>54451</v>
       </c>
+      <c r="AP101">
+        <v>362887</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -13592,6 +13897,9 @@
       <c r="AO102">
         <v>19231</v>
       </c>
+      <c r="AP102">
+        <v>134976</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -13721,6 +14029,9 @@
       <c r="AO103">
         <v>17157</v>
       </c>
+      <c r="AP103">
+        <v>112249</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -13850,6 +14161,9 @@
       <c r="AO104">
         <v>27616</v>
       </c>
+      <c r="AP104">
+        <v>202396</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -13979,6 +14293,9 @@
       <c r="AO105">
         <v>35106</v>
       </c>
+      <c r="AP105">
+        <v>262494</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -14108,6 +14425,9 @@
       <c r="AO106">
         <v>40075</v>
       </c>
+      <c r="AP106">
+        <v>316449</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -14237,6 +14557,9 @@
       <c r="AO107">
         <v>44039</v>
       </c>
+      <c r="AP107">
+        <v>300857</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -14366,6 +14689,9 @@
       <c r="AO108">
         <v>53462</v>
       </c>
+      <c r="AP108">
+        <v>339715</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -14495,6 +14821,9 @@
       <c r="AO109">
         <v>51558</v>
       </c>
+      <c r="AP109">
+        <v>371194</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -14624,6 +14953,9 @@
       <c r="AO110">
         <v>43389</v>
       </c>
+      <c r="AP110">
+        <v>262137</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -14753,6 +15085,9 @@
       <c r="AO111">
         <v>45917</v>
       </c>
+      <c r="AP111">
+        <v>279791</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -14882,6 +15217,9 @@
       <c r="AO112">
         <v>63098</v>
       </c>
+      <c r="AP112">
+        <v>455058</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -15011,6 +15349,9 @@
       <c r="AO113">
         <v>59926</v>
       </c>
+      <c r="AP113">
+        <v>401721</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -15140,6 +15481,9 @@
       <c r="AO114">
         <v>36670</v>
       </c>
+      <c r="AP114">
+        <v>267090</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -15269,6 +15613,9 @@
       <c r="AO115">
         <v>37724</v>
       </c>
+      <c r="AP115">
+        <v>322944</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -15398,6 +15745,9 @@
       <c r="AO116">
         <v>52822</v>
       </c>
+      <c r="AP116">
+        <v>394162</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -15527,6 +15877,9 @@
       <c r="AO117">
         <v>71898</v>
       </c>
+      <c r="AP117">
+        <v>504672</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -15656,6 +16009,9 @@
       <c r="AO118">
         <v>55063</v>
       </c>
+      <c r="AP118">
+        <v>365287</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -15785,6 +16141,9 @@
       <c r="AO119">
         <v>32093</v>
       </c>
+      <c r="AP119">
+        <v>214890</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -15914,6 +16273,9 @@
       <c r="AO120">
         <v>47132</v>
       </c>
+      <c r="AP120">
+        <v>338469</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -16043,6 +16405,9 @@
       <c r="AO121">
         <v>47170</v>
       </c>
+      <c r="AP121">
+        <v>343113</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -16172,6 +16537,9 @@
       <c r="AO122">
         <v>57910</v>
       </c>
+      <c r="AP122">
+        <v>444876</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -16301,6 +16669,9 @@
       <c r="AO123">
         <v>45861</v>
       </c>
+      <c r="AP123">
+        <v>363318</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -16430,6 +16801,9 @@
       <c r="AO124">
         <v>56674</v>
       </c>
+      <c r="AP124">
+        <v>463230</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -16559,6 +16933,9 @@
       <c r="AO125">
         <v>78596</v>
       </c>
+      <c r="AP125">
+        <v>577905</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -16688,6 +17065,9 @@
       <c r="AO126">
         <v>54981</v>
       </c>
+      <c r="AP126">
+        <v>360438</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -16817,6 +17197,9 @@
       <c r="AO127">
         <v>19318</v>
       </c>
+      <c r="AP127">
+        <v>134468</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -16946,6 +17329,9 @@
       <c r="AO128">
         <v>17275</v>
       </c>
+      <c r="AP128">
+        <v>112484</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -17075,6 +17461,9 @@
       <c r="AO129">
         <v>27831</v>
       </c>
+      <c r="AP129">
+        <v>202205</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -17204,6 +17593,9 @@
       <c r="AO130">
         <v>35256</v>
       </c>
+      <c r="AP130">
+        <v>260828</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -17333,6 +17725,9 @@
       <c r="AO131">
         <v>40320</v>
       </c>
+      <c r="AP131">
+        <v>315362</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -17462,6 +17857,9 @@
       <c r="AO132">
         <v>44375</v>
       </c>
+      <c r="AP132">
+        <v>300563</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -17591,6 +17989,9 @@
       <c r="AO133">
         <v>53967</v>
       </c>
+      <c r="AP133">
+        <v>337887</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -17720,6 +18121,9 @@
       <c r="AO134">
         <v>52200</v>
       </c>
+      <c r="AP134">
+        <v>373086</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -17849,6 +18253,9 @@
       <c r="AO135">
         <v>43554</v>
       </c>
+      <c r="AP135">
+        <v>260314</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -17978,6 +18385,9 @@
       <c r="AO136">
         <v>46413</v>
       </c>
+      <c r="AP136">
+        <v>278604</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -18107,6 +18517,9 @@
       <c r="AO137">
         <v>63701</v>
       </c>
+      <c r="AP137">
+        <v>452187</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -18236,6 +18649,9 @@
       <c r="AO138">
         <v>60482</v>
       </c>
+      <c r="AP138">
+        <v>401163</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -18365,6 +18781,9 @@
       <c r="AO139">
         <v>36903</v>
       </c>
+      <c r="AP139">
+        <v>266777</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -18494,6 +18913,9 @@
       <c r="AO140">
         <v>37949</v>
       </c>
+      <c r="AP140">
+        <v>322360</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -18623,6 +19045,9 @@
       <c r="AO141">
         <v>53417</v>
       </c>
+      <c r="AP141">
+        <v>392659</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -18752,6 +19177,9 @@
       <c r="AO142">
         <v>72729</v>
       </c>
+      <c r="AP142">
+        <v>503872</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -18881,6 +19309,9 @@
       <c r="AO143">
         <v>55495</v>
       </c>
+      <c r="AP143">
+        <v>365209</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -19010,6 +19441,9 @@
       <c r="AO144">
         <v>32430</v>
       </c>
+      <c r="AP144">
+        <v>214593</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -19139,6 +19573,9 @@
       <c r="AO145">
         <v>47268</v>
       </c>
+      <c r="AP145">
+        <v>337930</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -19268,6 +19705,9 @@
       <c r="AO146">
         <v>47422</v>
       </c>
+      <c r="AP146">
+        <v>342849</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -19397,6 +19837,9 @@
       <c r="AO147">
         <v>58092</v>
       </c>
+      <c r="AP147">
+        <v>443924</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -19526,6 +19969,9 @@
       <c r="AO148">
         <v>46100</v>
       </c>
+      <c r="AP148">
+        <v>362037</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -19655,6 +20101,9 @@
       <c r="AO149">
         <v>57173</v>
       </c>
+      <c r="AP149">
+        <v>463704</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -19784,6 +20233,9 @@
       <c r="AO150">
         <v>79446</v>
       </c>
+      <c r="AP150">
+        <v>578238</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -19913,6 +20365,9 @@
       <c r="AO151">
         <v>55572</v>
       </c>
+      <c r="AP151">
+        <v>359171</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -20042,6 +20497,9 @@
       <c r="AO152">
         <v>19386</v>
       </c>
+      <c r="AP152">
+        <v>134790</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -20171,6 +20629,9 @@
       <c r="AO153">
         <v>17328</v>
       </c>
+      <c r="AP153">
+        <v>112666</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -20300,6 +20761,9 @@
       <c r="AO154">
         <v>27957</v>
       </c>
+      <c r="AP154">
+        <v>202015</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -20429,6 +20893,9 @@
       <c r="AO155">
         <v>35315</v>
       </c>
+      <c r="AP155">
+        <v>259105</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -20558,6 +21025,9 @@
       <c r="AO156">
         <v>40690</v>
       </c>
+      <c r="AP156">
+        <v>314158</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -20687,6 +21157,9 @@
       <c r="AO157">
         <v>44752</v>
       </c>
+      <c r="AP157">
+        <v>300862</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -20816,6 +21289,9 @@
       <c r="AO158">
         <v>54367</v>
       </c>
+      <c r="AP158">
+        <v>335846</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -20945,6 +21421,9 @@
       <c r="AO159">
         <v>52629</v>
       </c>
+      <c r="AP159">
+        <v>374379</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -21074,6 +21553,9 @@
       <c r="AO160">
         <v>43857</v>
       </c>
+      <c r="AP160">
+        <v>258633</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -21203,6 +21685,9 @@
       <c r="AO161">
         <v>46925</v>
       </c>
+      <c r="AP161">
+        <v>277114</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -21332,6 +21817,9 @@
       <c r="AO162">
         <v>64155</v>
       </c>
+      <c r="AP162">
+        <v>449436</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -21461,6 +21949,9 @@
       <c r="AO163">
         <v>60721</v>
       </c>
+      <c r="AP163">
+        <v>399034</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -21590,6 +22081,9 @@
       <c r="AO164">
         <v>37045</v>
       </c>
+      <c r="AP164">
+        <v>266582</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -21719,6 +22213,9 @@
       <c r="AO165">
         <v>38069</v>
       </c>
+      <c r="AP165">
+        <v>321937</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -21848,6 +22345,9 @@
       <c r="AO166">
         <v>53964</v>
       </c>
+      <c r="AP166">
+        <v>391383</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -21977,6 +22477,9 @@
       <c r="AO167">
         <v>73235</v>
       </c>
+      <c r="AP167">
+        <v>501826</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -22106,6 +22609,9 @@
       <c r="AO168">
         <v>55796</v>
       </c>
+      <c r="AP168">
+        <v>364853</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -22235,6 +22741,9 @@
       <c r="AO169">
         <v>32621</v>
       </c>
+      <c r="AP169">
+        <v>213290</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -22364,6 +22873,9 @@
       <c r="AO170">
         <v>47266</v>
       </c>
+      <c r="AP170">
+        <v>336079</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -22493,6 +23005,9 @@
       <c r="AO171">
         <v>47662</v>
       </c>
+      <c r="AP171">
+        <v>341216</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -22622,6 +23137,9 @@
       <c r="AO172">
         <v>58404</v>
       </c>
+      <c r="AP172">
+        <v>443625</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -22751,6 +23269,9 @@
       <c r="AO173">
         <v>46300</v>
       </c>
+      <c r="AP173">
+        <v>361480</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -22880,6 +23401,9 @@
       <c r="AO174">
         <v>57396</v>
       </c>
+      <c r="AP174">
+        <v>464473</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -23009,6 +23533,9 @@
       <c r="AO175">
         <v>80039</v>
       </c>
+      <c r="AP175">
+        <v>576134</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -23138,6 +23665,9 @@
       <c r="AO176">
         <v>56261</v>
       </c>
+      <c r="AP176">
+        <v>360410</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -23267,6 +23797,9 @@
       <c r="AO177">
         <v>19535</v>
       </c>
+      <c r="AP177">
+        <v>133795</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -23396,6 +23929,9 @@
       <c r="AO178">
         <v>17511</v>
       </c>
+      <c r="AP178">
+        <v>112430</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -23525,6 +24061,9 @@
       <c r="AO179">
         <v>28222</v>
       </c>
+      <c r="AP179">
+        <v>202170</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -23654,6 +24193,9 @@
       <c r="AO180">
         <v>35510</v>
       </c>
+      <c r="AP180">
+        <v>256852</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -23783,6 +24325,9 @@
       <c r="AO181">
         <v>41205</v>
       </c>
+      <c r="AP181">
+        <v>312848</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -23912,6 +24457,9 @@
       <c r="AO182">
         <v>45183</v>
       </c>
+      <c r="AP182">
+        <v>299899</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -24041,6 +24589,9 @@
       <c r="AO183">
         <v>55267</v>
       </c>
+      <c r="AP183">
+        <v>334075</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -24170,6 +24721,9 @@
       <c r="AO184">
         <v>53294</v>
       </c>
+      <c r="AP184">
+        <v>374519</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -24299,6 +24853,9 @@
       <c r="AO185">
         <v>44388</v>
       </c>
+      <c r="AP185">
+        <v>258299</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -24428,6 +24985,9 @@
       <c r="AO186">
         <v>47451</v>
       </c>
+      <c r="AP186">
+        <v>275163</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -24557,6 +25117,9 @@
       <c r="AO187">
         <v>65104</v>
       </c>
+      <c r="AP187">
+        <v>446824</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -24686,6 +25249,9 @@
       <c r="AO188">
         <v>61467</v>
       </c>
+      <c r="AP188">
+        <v>397383</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -24815,6 +25381,9 @@
       <c r="AO189">
         <v>37340</v>
       </c>
+      <c r="AP189">
+        <v>265608</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -24944,6 +25513,9 @@
       <c r="AO190">
         <v>38537</v>
       </c>
+      <c r="AP190">
+        <v>322142</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -25073,6 +25645,9 @@
       <c r="AO191">
         <v>54755</v>
       </c>
+      <c r="AP191">
+        <v>389825</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -25202,6 +25777,9 @@
       <c r="AO192">
         <v>74076</v>
       </c>
+      <c r="AP192">
+        <v>499833</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -25331,6 +25909,9 @@
       <c r="AO193">
         <v>56313</v>
       </c>
+      <c r="AP193">
+        <v>364044</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -25460,6 +26041,9 @@
       <c r="AO194">
         <v>33037</v>
       </c>
+      <c r="AP194">
+        <v>212221</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -25589,6 +26173,9 @@
       <c r="AO195">
         <v>47551</v>
       </c>
+      <c r="AP195">
+        <v>334546</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -25718,6 +26305,9 @@
       <c r="AO196">
         <v>48190</v>
       </c>
+      <c r="AP196">
+        <v>339666</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -25847,6 +26437,9 @@
       <c r="AO197">
         <v>58825</v>
       </c>
+      <c r="AP197">
+        <v>441070</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -25976,6 +26569,9 @@
       <c r="AO198">
         <v>46768</v>
       </c>
+      <c r="AP198">
+        <v>361040</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -26105,6 +26701,9 @@
       <c r="AO199">
         <v>58034</v>
       </c>
+      <c r="AP199">
+        <v>464942</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -26234,6 +26833,9 @@
       <c r="AO200">
         <v>81026</v>
       </c>
+      <c r="AP200">
+        <v>574224</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -26362,6 +26964,9 @@
       </c>
       <c r="AO201">
         <v>58063</v>
+      </c>
+      <c r="AP201">
+        <v>367986</v>
       </c>
     </row>
   </sheetData>
